--- a/Data Files/Careers/CareerDetails.xlsx
+++ b/Data Files/Careers/CareerDetails.xlsx
@@ -1,46 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7042074720616a4e/Projects/Python/Maelstrom Character Creator/Data Files/Careers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CB06B543CE0B983958275E2A3E6882CCD25D1C1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63C91D94-3F54-42D7-BA66-BABA4510969C}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ArcherCrossbow" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Beggar" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="BoatmanSailor" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Clerk" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Craftsman" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Entertainer" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Fisherman" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Groom" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Herbalist" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Huntsman" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Knight" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Lady" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Mage" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Man-at-Arms" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Mercenary" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="Miner" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="Monk" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="Outlaw" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="Peasant" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="Physician" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="Priest" sheetId="21" r:id="rId24"/>
-    <sheet state="visible" name="Rogue" sheetId="22" r:id="rId25"/>
-    <sheet state="visible" name="Serjeant-at-arms" sheetId="23" r:id="rId26"/>
-    <sheet state="visible" name="Servant" sheetId="24" r:id="rId27"/>
-    <sheet state="visible" name="Shepherd" sheetId="25" r:id="rId28"/>
-    <sheet state="visible" name="Squire" sheetId="26" r:id="rId29"/>
-    <sheet state="visible" name="Thief" sheetId="27" r:id="rId30"/>
-    <sheet state="visible" name="Trader" sheetId="28" r:id="rId31"/>
-    <sheet state="visible" name="Wiseman" sheetId="29" r:id="rId32"/>
-    <sheet state="visible" name="Woodsman" sheetId="30" r:id="rId33"/>
+    <sheet name="ArcherCrossbow" sheetId="1" r:id="rId1"/>
+    <sheet name="Beggar" sheetId="2" r:id="rId2"/>
+    <sheet name="BoatmanSailor" sheetId="3" r:id="rId3"/>
+    <sheet name="Clerk" sheetId="4" r:id="rId4"/>
+    <sheet name="Craftsman" sheetId="5" r:id="rId5"/>
+    <sheet name="Master Craftsman" sheetId="32" r:id="rId6"/>
+    <sheet name="Craftsman (Boatbuilder)" sheetId="31" r:id="rId7"/>
+    <sheet name="Entertainer" sheetId="6" r:id="rId8"/>
+    <sheet name="Fisherman" sheetId="7" r:id="rId9"/>
+    <sheet name="Groom" sheetId="8" r:id="rId10"/>
+    <sheet name="Herbalist" sheetId="9" r:id="rId11"/>
+    <sheet name="Huntsman" sheetId="10" r:id="rId12"/>
+    <sheet name="Knight" sheetId="11" r:id="rId13"/>
+    <sheet name="Lady" sheetId="12" r:id="rId14"/>
+    <sheet name="Mage" sheetId="13" r:id="rId15"/>
+    <sheet name="Man-at-Arms" sheetId="14" r:id="rId16"/>
+    <sheet name="Mercenary" sheetId="15" r:id="rId17"/>
+    <sheet name="Miner" sheetId="16" r:id="rId18"/>
+    <sheet name="Monk" sheetId="17" r:id="rId19"/>
+    <sheet name="Outlaw" sheetId="18" r:id="rId20"/>
+    <sheet name="Peasant" sheetId="19" r:id="rId21"/>
+    <sheet name="Physician" sheetId="20" r:id="rId22"/>
+    <sheet name="Priest" sheetId="21" r:id="rId23"/>
+    <sheet name="Rogue" sheetId="22" r:id="rId24"/>
+    <sheet name="Serjeant-at-arms" sheetId="23" r:id="rId25"/>
+    <sheet name="Servant" sheetId="24" r:id="rId26"/>
+    <sheet name="Shepherd" sheetId="25" r:id="rId27"/>
+    <sheet name="Squire" sheetId="26" r:id="rId28"/>
+    <sheet name="Thief" sheetId="27" r:id="rId29"/>
+    <sheet name="Trader" sheetId="28" r:id="rId30"/>
+    <sheet name="Wiseman" sheetId="29" r:id="rId31"/>
+    <sheet name="Woodsman" sheetId="30" r:id="rId32"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="354">
   <si>
     <t>Title</t>
   </si>
@@ -1099,29 +1110,33 @@
   </si>
   <si>
     <t>87-95</t>
+  </si>
+  <si>
+    <t>ArcherCrossbow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -1131,7 +1146,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1141,154 +1156,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1478,20 +1384,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,12 +1437,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1561,7 +1472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1569,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1587,12 +1498,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -1610,12 +1521,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -1633,7 +1544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1647,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1655,35 +1566,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="J10" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,122 +1630,116 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" s="1">
-        <v>81.0</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1842,21 +1748,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,18 +1800,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>169</v>
@@ -1911,107 +1820,122 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>93.0</v>
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="1">
-        <v>94.0</v>
+      <c r="G5" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,99 +1970,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1">
-        <v>40.0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="1">
-        <v>94.0</v>
+        <v>185</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="1">
-        <v>95.0</v>
+        <v>187</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,90 +2144,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1">
-        <v>60.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="1">
-        <v>94.0</v>
+        <v>199</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="1">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="1" t="s">
+    <row r="6" spans="1:11">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="1">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,161 +2300,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
+      </c>
+      <c r="G3" s="1">
+        <v>94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
+      </c>
+      <c r="G4" s="1">
+        <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="1">
-        <v>88.0</v>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" s="1">
-        <v>89.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>92.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,137 +2428,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="G3" s="1">
+        <v>94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
-        <v>79.0</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="G5" s="1" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,138 +2547,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
+      </c>
+      <c r="G5" s="1">
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" s="1" t="s">
-        <v>245</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1">
+        <v>89</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>246</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1">
+        <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1">
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
@@ -2785,21 +2687,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,94 +2737,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="1">
-        <v>88.0</v>
+        <v>49</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="1">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="1">
-        <v>94.0</v>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" s="1">
-        <v>95.0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2956,137 +2903,162 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="1">
-        <v>67.0</v>
+        <v>241</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1">
+        <v>94</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1">
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6">
-      <c r="G6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3121,192 +3093,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G3" s="1">
-        <v>57.0</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="1">
-        <v>58.0</v>
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="1" t="s">
-        <v>269</v>
+    <row r="5" spans="1:11">
+      <c r="G5" s="1">
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6">
-      <c r="G6" s="1" t="s">
-        <v>270</v>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1">
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1">
-        <v>75.0</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1">
-        <v>84.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" s="1">
-        <v>89.0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="G16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3341,12 +3216,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -3370,7 +3245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
@@ -3378,7 +3253,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
@@ -3390,12 +3265,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>59</v>
@@ -3407,7 +3282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
@@ -3418,7 +3293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
@@ -3426,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
@@ -3434,7 +3309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
         <v>68</v>
       </c>
@@ -3442,7 +3317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3451,21 +3326,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3500,126 +3376,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="1">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5">
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1">
-        <v>95.0</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3654,18 +3542,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>214</v>
@@ -3674,94 +3562,173 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="1">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="1">
-        <v>93.0</v>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="G5" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6">
-      <c r="G6" s="1">
-        <v>94.0</v>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1">
-        <v>95.0</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="G13" s="1">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
+    <row r="16" spans="1:11">
+      <c r="G16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,153 +3763,127 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1">
-        <v>79.0</v>
+        <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1">
-        <v>80.0</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,122 +3918,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>299</v>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="G5" s="1">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4127,21 +4061,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>129</v>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -4150,128 +4084,131 @@
         <v>291</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>305</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>254</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>310</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1">
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>311</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1">
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="G11" s="1" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4306,155 +4243,123 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1">
-        <v>40.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G4" s="1">
-        <v>57.0</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4489,127 +4394,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3">
-        <v>44566.0</v>
+      <c r="G2" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1">
-        <v>83.0</v>
+      <c r="G5" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4644,133 +4574,156 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E3" s="1">
-        <v>50.0</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="1">
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>95.0</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1">
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,169 +4758,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>93</v>
+      <c r="G2" s="3">
+        <v>44566</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="1">
-        <v>51.0</v>
+        <v>199</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1">
-        <v>20.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5002,153 +4914,134 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>341</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G5" s="1">
-        <v>94.0</v>
+      <c r="G5" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="1">
-        <v>95.0</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5183,12 +5076,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -5212,7 +5105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
@@ -5220,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>77</v>
@@ -5232,12 +5125,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>80</v>
@@ -5249,12 +5142,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>83</v>
@@ -5266,7 +5159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
@@ -5274,7 +5167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
         <v>87</v>
       </c>
@@ -5282,7 +5175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
@@ -5290,7 +5183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
         <v>89</v>
       </c>
@@ -5298,7 +5191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5307,21 +5200,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5356,12 +5250,392 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="1">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="1">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -5385,7 +5659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>345</v>
       </c>
@@ -5393,7 +5667,7 @@
         <v>184</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>346</v>
@@ -5405,12 +5679,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>225</v>
@@ -5422,12 +5696,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>83</v>
@@ -5439,7 +5713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>190</v>
       </c>
@@ -5447,7 +5721,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
         <v>350</v>
       </c>
@@ -5455,15 +5729,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
         <v>351</v>
       </c>
@@ -5471,7 +5745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
         <v>352</v>
       </c>
@@ -5479,7 +5753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
@@ -5488,21 +5762,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5537,12 +5812,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>91</v>
@@ -5566,7 +5841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
@@ -5574,7 +5849,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
@@ -5586,12 +5861,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>100</v>
@@ -5603,7 +5878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
@@ -5614,7 +5889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
@@ -5622,7 +5897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
         <v>105</v>
       </c>
@@ -5630,7 +5905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
@@ -5639,21 +5914,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5688,12 +5966,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -5717,7 +5995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
@@ -5725,7 +6003,7 @@
         <v>112</v>
       </c>
       <c r="E3" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>113</v>
@@ -5737,12 +6015,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>116</v>
@@ -5754,7 +6032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,7 +6043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>119</v>
       </c>
@@ -5773,7 +6051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
         <v>120</v>
       </c>
@@ -5781,7 +6059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
         <v>121</v>
       </c>
@@ -5789,7 +6067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
         <v>122</v>
       </c>
@@ -5797,7 +6075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5806,21 +6084,21 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A178C789-713B-49D1-BC8B-3D05BD51F795}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5855,161 +6133,139 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
-        <v>20.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="G9" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CF132-D24E-419A-A218-4993A7B2AAE9}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6044,21 +6300,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -6067,106 +6323,117 @@
         <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
-        <v>40.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6">
-      <c r="G6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6201,139 +6468,162 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1">
-        <v>40.0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8">
-      <c r="G8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="G9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
+    <row r="12" spans="1:11">
+      <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6368,124 +6658,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="G7" s="1" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>